--- a/sputnik/personal/ee/104ee.xlsx
+++ b/sputnik/personal/ee/104ee.xlsx
@@ -16,23 +16,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -42,10 +36,25 @@
     <t xml:space="preserve">кВт/ч к оплате </t>
   </si>
   <si>
-    <t xml:space="preserve">сняли счетчик </t>
-  </si>
-  <si>
     <t>Т2</t>
+  </si>
+  <si>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>к доплате</t>
   </si>
 </sst>
 </file>
@@ -53,9 +62,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,28 +96,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -123,7 +110,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -146,39 +133,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -191,7 +150,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -200,66 +159,19 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -567,377 +479,229 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>43225</v>
+        <v>43631</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>5820</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>43267</v>
-      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9">
+        <v>75</v>
+      </c>
+      <c r="E2" s="10">
+        <v>4.57</v>
+      </c>
+      <c r="F2" s="12">
+        <f>PRODUCT(D2,E2)</f>
+        <v>342.75</v>
+      </c>
+      <c r="G2" s="13">
+        <f>SUM(F2,F3)</f>
+        <v>342.75</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3">
         <v>0</v>
       </c>
-      <c r="C3" s="3">
-        <v>6053</v>
-      </c>
-      <c r="D3" s="3">
-        <f>SUM(C3,-C2)</f>
-        <v>233</v>
-      </c>
-      <c r="E3" s="6">
-        <v>4.29</v>
-      </c>
-      <c r="F3" s="20">
-        <f>PRODUCT(D3,E3)</f>
-        <v>999.57</v>
-      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>43400</v>
+        <v>43669</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="5">
-        <v>6250</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="C4" s="3">
+        <v>135</v>
+      </c>
+      <c r="D4" s="11">
         <f>SUM(C4,-C3)</f>
-        <v>197</v>
-      </c>
-      <c r="E4" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="F4" s="20">
+        <v>135</v>
+      </c>
+      <c r="E4" s="11">
+        <v>4.49</v>
+      </c>
+      <c r="F4" s="12">
         <f>PRODUCT(D4,E4)</f>
-        <v>886.5</v>
+        <v>606.15</v>
+      </c>
+      <c r="G4" s="13">
+        <f>SUM(F4,F5)</f>
+        <v>771.39</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1112.4000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22">
-        <v>43599</v>
-      </c>
+      <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3">
+        <v>68</v>
+      </c>
+      <c r="D5" s="11">
+        <f>SUM(C5,-C3)</f>
+        <v>68</v>
+      </c>
+      <c r="E5" s="11">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F5" s="12">
+        <f>PRODUCT(D5,E5)</f>
+        <v>165.24</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>43721</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="18">
-        <v>6306</v>
-      </c>
-      <c r="D5" s="3">
-        <f>SUM(C5,-C4)</f>
-        <v>56</v>
-      </c>
-      <c r="E5" s="21">
-        <v>4.57</v>
-      </c>
-      <c r="F5" s="20">
-        <f>PRODUCT(D5,E5)</f>
-        <v>255.92000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23">
-        <v>43631</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="25">
-        <v>6381</v>
-      </c>
-      <c r="D6" s="26">
-        <f>SUM(C6,-C5)</f>
-        <v>75</v>
-      </c>
-      <c r="E6" s="27">
-        <v>4.57</v>
-      </c>
-      <c r="F6" s="28">
+      <c r="C6" s="3">
+        <v>188</v>
+      </c>
+      <c r="D6" s="11">
+        <f>SUM(C6,-C4)</f>
+        <v>53</v>
+      </c>
+      <c r="E6" s="11">
+        <v>4.49</v>
+      </c>
+      <c r="F6" s="12">
         <f>PRODUCT(D6,E6)</f>
-        <v>342.75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>43631</v>
-      </c>
+        <v>237.97</v>
+      </c>
+      <c r="G6" s="13">
+        <f>SUM(F6,F7)</f>
+        <v>327.88</v>
+      </c>
+      <c r="H6" s="2">
+        <v>327.88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
       <c r="B7" s="3" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C7" s="3">
-        <v>0</v>
-      </c>
-      <c r="D7" s="18">
-        <v>75</v>
-      </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="28">
-        <v>342.75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="D7" s="11">
+        <f>SUM(C7,-C5)</f>
+        <v>37</v>
+      </c>
+      <c r="E7" s="11">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F7" s="12">
+        <f>PRODUCT(D7,E7)</f>
+        <v>89.910000000000011</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
-      <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0</v>
-      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>43669</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3">
-        <v>135</v>
-      </c>
-      <c r="D9" s="29">
-        <f>SUM(C9,-C8)</f>
-        <v>135</v>
-      </c>
-      <c r="E9" s="29">
-        <v>4.49</v>
-      </c>
-      <c r="F9" s="30">
-        <f>PRODUCT(D9,E9)</f>
-        <v>606.15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="3">
-        <v>68</v>
-      </c>
-      <c r="D10" s="29">
-        <f>SUM(C10,-C8)</f>
-        <v>68</v>
-      </c>
-      <c r="E10" s="29">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F10" s="30">
-        <f>PRODUCT(D10,E10)</f>
-        <v>165.24</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>43721</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3">
-        <v>188</v>
-      </c>
-      <c r="D11" s="29">
-        <f>SUM(C11,-C9)</f>
-        <v>53</v>
-      </c>
-      <c r="E11" s="29">
-        <v>4.49</v>
-      </c>
-      <c r="F11" s="30">
-        <f>PRODUCT(D11,E11)</f>
-        <v>237.97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="3">
-        <v>105</v>
-      </c>
-      <c r="D12" s="29">
-        <f>SUM(C12,-C10)</f>
-        <v>37</v>
-      </c>
-      <c r="E12" s="29">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F12" s="30">
-        <f>PRODUCT(D12,E12)</f>
-        <v>89.910000000000011</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="16"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="13"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="13">
+        <f>SUM(G2:G7)</f>
+        <v>1442.02</v>
+      </c>
+      <c r="H8" s="13">
+        <f>SUM(H2:H7)</f>
+        <v>1440.2800000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="13">
+        <f>SUM(H8,-G8)</f>
+        <v>-1.7399999999997817</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/104ee.xlsx
+++ b/sputnik/personal/ee/104ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -137,7 +137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -172,6 +172,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -479,10 +480,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -671,36 +672,87 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="6" t="s">
-        <v>11</v>
+      <c r="A8" s="4">
+        <v>43942</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>333</v>
+      </c>
+      <c r="D8" s="11">
+        <f>SUM(C8,-C6)</f>
+        <v>145</v>
+      </c>
+      <c r="E8" s="11">
+        <v>4.49</v>
+      </c>
+      <c r="F8" s="12">
+        <f>PRODUCT(D8,E8)</f>
+        <v>651.05000000000007</v>
       </c>
       <c r="G8" s="13">
-        <f>SUM(G2:G7)</f>
-        <v>1442.02</v>
-      </c>
-      <c r="H8" s="13">
-        <f>SUM(H2:H7)</f>
-        <v>1440.2800000000002</v>
+        <f>SUM(F8,F9)</f>
+        <v>806.57</v>
+      </c>
+      <c r="H8" s="14">
+        <v>1000</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="6" t="s">
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3">
+        <v>169</v>
+      </c>
+      <c r="D9" s="11">
+        <f>SUM(C9,-C7)</f>
+        <v>64</v>
+      </c>
+      <c r="E9" s="11">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F9" s="12">
+        <f>PRODUCT(D9,E9)</f>
+        <v>155.52000000000001</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="13">
+        <f>SUM(G2:G9)</f>
+        <v>2248.59</v>
+      </c>
+      <c r="H10" s="13">
+        <f>SUM(H2:H9)</f>
+        <v>2440.2800000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="13">
-        <f>SUM(H8,-G8)</f>
-        <v>-1.7399999999997817</v>
+      <c r="G11" s="2"/>
+      <c r="H11" s="13">
+        <f>SUM(H10,-G10)</f>
+        <v>191.69000000000005</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/104ee.xlsx
+++ b/sputnik/personal/ee/104ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -480,10 +480,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -585,7 +585,7 @@
         <v>4.49</v>
       </c>
       <c r="F4" s="12">
-        <f>PRODUCT(D4,E4)</f>
+        <f t="shared" ref="F4:F9" si="0">PRODUCT(D4,E4)</f>
         <v>606.15</v>
       </c>
       <c r="G4" s="13">
@@ -612,7 +612,7 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F5" s="12">
-        <f>PRODUCT(D5,E5)</f>
+        <f t="shared" si="0"/>
         <v>165.24</v>
       </c>
       <c r="G5" s="2"/>
@@ -638,7 +638,7 @@
         <v>4.49</v>
       </c>
       <c r="F6" s="12">
-        <f>PRODUCT(D6,E6)</f>
+        <f t="shared" si="0"/>
         <v>237.97</v>
       </c>
       <c r="G6" s="13">
@@ -665,7 +665,7 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F7" s="12">
-        <f>PRODUCT(D7,E7)</f>
+        <f t="shared" si="0"/>
         <v>89.910000000000011</v>
       </c>
       <c r="G7" s="2"/>
@@ -689,7 +689,7 @@
         <v>4.49</v>
       </c>
       <c r="F8" s="12">
-        <f>PRODUCT(D8,E8)</f>
+        <f t="shared" si="0"/>
         <v>651.05000000000007</v>
       </c>
       <c r="G8" s="13">
@@ -716,42 +716,93 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F9" s="12">
-        <f>PRODUCT(D9,E9)</f>
+        <f t="shared" si="0"/>
         <v>155.52000000000001</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="6" t="s">
-        <v>11</v>
+      <c r="A10" s="4">
+        <v>44007</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>600</v>
+      </c>
+      <c r="D10" s="11">
+        <f>SUM(C10,-C8)</f>
+        <v>267</v>
+      </c>
+      <c r="E10" s="11">
+        <v>4.49</v>
+      </c>
+      <c r="F10" s="12">
+        <f t="shared" ref="F10:F11" si="1">PRODUCT(D10,E10)</f>
+        <v>1198.8300000000002</v>
       </c>
       <c r="G10" s="13">
-        <f>SUM(G2:G9)</f>
-        <v>2248.59</v>
-      </c>
-      <c r="H10" s="13">
-        <f>SUM(H2:H9)</f>
-        <v>2440.2800000000002</v>
+        <f>SUM(F10,F11)</f>
+        <v>1198.8300000000002</v>
+      </c>
+      <c r="H10" s="14">
+        <v>1198.83</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="6" t="s">
+      <c r="B11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3">
+        <v>169</v>
+      </c>
+      <c r="D11" s="11">
+        <f>SUM(C11,-C9)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="11">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F11" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="13">
+        <f>SUM(G2:G11)</f>
+        <v>3447.42</v>
+      </c>
+      <c r="H12" s="13">
+        <f>SUM(H2:H11)</f>
+        <v>3639.11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="13">
-        <f>SUM(H10,-G10)</f>
+      <c r="G13" s="2"/>
+      <c r="H13" s="13">
+        <f>SUM(H12,-G12)</f>
         <v>191.69000000000005</v>
       </c>
     </row>

--- a/sputnik/personal/ee/104ee.xlsx
+++ b/sputnik/personal/ee/104ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -102,12 +102,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -137,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -173,6 +179,9 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -480,10 +489,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G8" sqref="G8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -588,11 +597,11 @@
         <f t="shared" ref="F4:F9" si="0">PRODUCT(D4,E4)</f>
         <v>606.15</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="15">
         <f>SUM(F4,F5)</f>
         <v>771.39</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="16">
         <v>1112.4000000000001</v>
       </c>
     </row>
@@ -605,7 +614,7 @@
         <v>68</v>
       </c>
       <c r="D5" s="11">
-        <f>SUM(C5,-C3)</f>
+        <f t="shared" ref="D5:D13" si="1">SUM(C5,-C3)</f>
         <v>68</v>
       </c>
       <c r="E5" s="11">
@@ -631,7 +640,7 @@
         <v>188</v>
       </c>
       <c r="D6" s="11">
-        <f>SUM(C6,-C4)</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="E6" s="11">
@@ -658,7 +667,7 @@
         <v>105</v>
       </c>
       <c r="D7" s="11">
-        <f>SUM(C7,-C5)</f>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="E7" s="11">
@@ -682,7 +691,7 @@
         <v>333</v>
       </c>
       <c r="D8" s="11">
-        <f>SUM(C8,-C6)</f>
+        <f t="shared" si="1"/>
         <v>145</v>
       </c>
       <c r="E8" s="11">
@@ -692,11 +701,11 @@
         <f t="shared" si="0"/>
         <v>651.05000000000007</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="15">
         <f>SUM(F8,F9)</f>
         <v>806.57</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="17">
         <v>1000</v>
       </c>
     </row>
@@ -709,7 +718,7 @@
         <v>169</v>
       </c>
       <c r="D9" s="11">
-        <f>SUM(C9,-C7)</f>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="E9" s="11">
@@ -733,14 +742,14 @@
         <v>600</v>
       </c>
       <c r="D10" s="11">
-        <f>SUM(C10,-C8)</f>
+        <f t="shared" si="1"/>
         <v>267</v>
       </c>
       <c r="E10" s="11">
         <v>4.49</v>
       </c>
       <c r="F10" s="12">
-        <f t="shared" ref="F10:F11" si="1">PRODUCT(D10,E10)</f>
+        <f t="shared" ref="F10:F11" si="2">PRODUCT(D10,E10)</f>
         <v>1198.8300000000002</v>
       </c>
       <c r="G10" s="13">
@@ -760,50 +769,101 @@
         <v>169</v>
       </c>
       <c r="D11" s="11">
-        <f>SUM(C11,-C9)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E11" s="11">
         <v>2.4300000000000002</v>
       </c>
       <c r="F11" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="6" t="s">
-        <v>11</v>
+      <c r="A12" s="4">
+        <v>44078</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>702</v>
+      </c>
+      <c r="D12" s="11">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="E12" s="11">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="12">
+        <f t="shared" ref="F12:F13" si="3">PRODUCT(D12,E12)</f>
+        <v>480.42</v>
       </c>
       <c r="G12" s="13">
-        <f>SUM(G2:G11)</f>
-        <v>3447.42</v>
-      </c>
-      <c r="H12" s="13">
-        <f>SUM(H2:H11)</f>
-        <v>3639.11</v>
+        <f>SUM(F12,F13)</f>
+        <v>842.52</v>
+      </c>
+      <c r="H12" s="14">
+        <v>842.52</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="6" t="s">
+      <c r="B13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3">
+        <v>311</v>
+      </c>
+      <c r="D13" s="11">
+        <f t="shared" si="1"/>
+        <v>142</v>
+      </c>
+      <c r="E13" s="11">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="12">
+        <f t="shared" si="3"/>
+        <v>362.09999999999997</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="13">
+        <f>SUM(G2:G13)</f>
+        <v>4289.9400000000005</v>
+      </c>
+      <c r="H14" s="13">
+        <f>SUM(H2:H13)</f>
+        <v>4481.63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="13">
-        <f>SUM(H12,-G12)</f>
-        <v>191.69000000000005</v>
+      <c r="G15" s="2"/>
+      <c r="H15" s="13">
+        <f>SUM(H14,-G14)</f>
+        <v>191.6899999999996</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/104ee.xlsx
+++ b/sputnik/personal/ee/104ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Мама\Рабочий стол\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\30.04.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.05.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -430,7 +430,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,7 +561,7 @@
         <v>702</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" ref="D6:D7" si="2">SUM(C6,-C4)</f>
+        <f t="shared" ref="D6:D9" si="2">SUM(C6,-C4)</f>
         <v>102</v>
       </c>
       <c r="E6" s="3">
@@ -602,22 +602,53 @@
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="3"/>
+      <c r="A8" s="4">
+        <v>44330</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3">
+        <v>782</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" ref="F8:F9" si="3">D8*E8</f>
+        <v>376.8</v>
+      </c>
+      <c r="G8" s="8">
+        <f>SUM(F8,F9)</f>
+        <v>542.54999999999995</v>
+      </c>
+      <c r="H8" s="3">
+        <v>571.23</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="8"/>
+      <c r="B9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3">
+        <v>376</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="3"/>
+        <v>165.75</v>
+      </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>

--- a/sputnik/personal/ee/104ee.xlsx
+++ b/sputnik/personal/ee/104ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\30.04.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.05.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\18.06.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 15.07.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -430,7 +430,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,24 +653,55 @@
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="3"/>
+      <c r="A10" s="4">
+        <v>44396</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3">
+        <v>922</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" ref="D10:D11" si="4">SUM(C10,-C8)</f>
+        <v>140</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4.96</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" ref="F10:F11" si="5">D10*E10</f>
+        <v>694.4</v>
+      </c>
+      <c r="G10" s="8">
+        <f>SUM(F10,F11)</f>
+        <v>769.43999999999994</v>
+      </c>
+      <c r="H10" s="8">
+        <v>500</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="8"/>
+      <c r="B11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3">
+        <v>404</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="5"/>
+        <v>75.040000000000006</v>
+      </c>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
@@ -680,7 +711,7 @@
       <c r="E12" s="9"/>
       <c r="F12" s="3"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
@@ -690,7 +721,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
-      <c r="H13" s="3"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
@@ -700,7 +731,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="8"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -710,7 +741,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="3"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
@@ -720,17 +751,17 @@
       <c r="E16" s="3"/>
       <c r="F16" s="8"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="H16" s="8"/>
     </row>
     <row r="17" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="H17" s="8"/>
     </row>
     <row r="18" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="H18" s="8"/>
     </row>
     <row r="19" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>

--- a/sputnik/personal/ee/104ee.xlsx
+++ b/sputnik/personal/ee/104ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\18.06.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 15.07.2021 вкл-но\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\06.09.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 06.09.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -60,7 +60,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,14 +82,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -127,7 +119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -145,8 +137,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -430,7 +420,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,23 +694,54 @@
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="8"/>
+      <c r="A12" s="4">
+        <v>44445</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3">
+        <v>980</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" ref="D12:D13" si="6">SUM(C12,-C10)</f>
+        <v>58</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4.96</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" ref="F12:F13" si="7">D12*E12</f>
+        <v>287.68</v>
+      </c>
+      <c r="G12" s="8">
+        <f>SUM(F12,F13)</f>
+        <v>338.6</v>
+      </c>
+      <c r="H12" s="8">
+        <v>579.36</v>
+      </c>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
+      <c r="B13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3">
+        <v>423</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="7"/>
+        <v>50.92</v>
+      </c>
+      <c r="G13" s="3"/>
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
